--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MISSISSIPPI_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MISSISSIPPI_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D641"/>
+  <dimension ref="A1:D635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>0.009350649350649351</v>
+        <v>0.009350649350649352</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C20">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C24">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C28">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C30">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C50">
@@ -1259,7 +1259,7 @@
         <v>181</v>
       </c>
       <c r="D67">
-        <v>0.09402597402597403</v>
+        <v>0.09402597402597404</v>
       </c>
     </row>
     <row r="68">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C80">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C83">
@@ -1626,7 +1626,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C95">
@@ -1748,7 +1748,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1805,7 +1805,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C108">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C126">
@@ -2057,7 +2057,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C127">
@@ -2122,12 +2122,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C132">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C134">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C140">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C142">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C148">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C151">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C158">
@@ -2587,7 +2587,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C167">
@@ -2600,7 +2600,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C168">
@@ -2613,7 +2613,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C169">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C173">
@@ -2717,7 +2717,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C177">
@@ -2847,7 +2847,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C187">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C189">
@@ -2886,7 +2886,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C190">
@@ -2899,7 +2899,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C191">
@@ -2938,7 +2938,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C194">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C199">
@@ -3034,7 +3034,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C201">
@@ -3073,7 +3073,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C204">
@@ -3099,7 +3099,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C206">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C207">
@@ -3138,7 +3138,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C209">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C210">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C211">
@@ -3177,7 +3177,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C212">
@@ -3190,7 +3190,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C213">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C214">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C216">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C219">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C226">
@@ -3372,7 +3372,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C227">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C228">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C232">
@@ -3663,7 +3663,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C249">
@@ -3689,7 +3689,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C251">
@@ -3728,7 +3728,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C254">
@@ -3741,7 +3741,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C255">
@@ -3793,7 +3793,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C259">
@@ -3850,7 +3850,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C263">
@@ -3915,7 +3915,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C268">
@@ -3967,7 +3967,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C272">
@@ -3980,7 +3980,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C273">
@@ -4045,7 +4045,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C278">
@@ -4058,7 +4058,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C279">
@@ -4705,7 +4705,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C328">
@@ -4775,7 +4775,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C333">
@@ -4936,7 +4936,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C345">
@@ -4975,7 +4975,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C348">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C351">
@@ -5045,7 +5045,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C353">
@@ -5071,7 +5071,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C355">
@@ -5084,7 +5084,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C356">
@@ -5097,7 +5097,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C357">
@@ -5110,7 +5110,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C358">
@@ -5136,7 +5136,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C360">
@@ -5227,7 +5227,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C367">
@@ -5604,7 +5604,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C396">
@@ -5669,7 +5669,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C401">
@@ -5682,7 +5682,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C402">
@@ -5695,7 +5695,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C403">
@@ -5708,7 +5708,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C404">
@@ -5721,7 +5721,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C405">
@@ -5856,7 +5856,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C415">
@@ -5947,7 +5947,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C422">
@@ -5973,7 +5973,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C424">
@@ -6025,7 +6025,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C428">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C442">
@@ -6238,7 +6238,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C444">
@@ -6277,7 +6277,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C447">
@@ -6290,7 +6290,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C448">
@@ -6316,7 +6316,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C450">
@@ -6355,7 +6355,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C453">
@@ -6482,7 +6482,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C462">
@@ -6495,7 +6495,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C463">
@@ -6651,7 +6651,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C475">
@@ -6742,7 +6742,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C482">
@@ -6755,7 +6755,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C483">
@@ -7250,7 +7250,7 @@
         <v>18</v>
       </c>
       <c r="D519">
-        <v>0.009350649350649351</v>
+        <v>0.009350649350649352</v>
       </c>
     </row>
     <row r="520">
@@ -7321,7 +7321,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C525">
@@ -7513,7 +7513,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C539">
@@ -7539,7 +7539,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C541">
@@ -7591,7 +7591,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C545">
@@ -7617,7 +7617,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C547">
@@ -7734,7 +7734,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C556">
@@ -7747,7 +7747,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C557">
@@ -7877,7 +7877,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C567">
@@ -7890,7 +7890,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C568">
@@ -7994,7 +7994,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C576">
@@ -8007,7 +8007,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C577">
@@ -8059,7 +8059,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C581">
@@ -8124,7 +8124,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C586">
@@ -8137,7 +8137,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C587">
@@ -8228,7 +8228,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C594">
@@ -8241,7 +8241,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C595">
@@ -8423,7 +8423,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C609">
@@ -8654,7 +8654,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C626">
@@ -8732,7 +8732,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C632">
@@ -8779,41 +8779,6 @@
       </c>
       <c r="D635">
         <v>1</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MISSISSIPPI_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MISSISSIPPI_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>El Llano</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Campeche</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Hopelchén</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Benemérito De Las Américas</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Larráinzar</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Sunuapa</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tumbalá</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -1198,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1211,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1224,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -1237,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1250,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1281,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -1294,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Carichí</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Cusihuiriachi</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1424,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1437,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1450,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1463,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -1476,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Urique</t>
@@ -1489,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1520,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1533,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Candela</t>
@@ -1546,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Cuatro Ciénegas</t>
@@ -1559,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1572,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1585,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1598,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1611,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Buenaventura</t>
@@ -1624,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1637,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1650,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1663,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1676,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1707,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Ixtlahuacán</t>
@@ -1720,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1733,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1764,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1777,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1790,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1803,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1816,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1829,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1842,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1855,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1868,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1881,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1894,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1907,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1920,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Súchil</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Axapusco</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>San Martín De Las Pirámides</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Teotihuacán</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tequixquiac</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2572,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -2585,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -2598,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2611,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -2663,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>León</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3019,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -3032,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -3045,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -3058,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3071,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Atlamajalcingo Del Monte</t>
@@ -3084,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -3097,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -3110,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3123,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -3136,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -3149,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3162,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3175,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Mochitlán</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3344,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -3357,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3370,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3383,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3396,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -3409,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -3422,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -3435,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3448,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -3461,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -3474,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3505,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -3518,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -3531,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>El Arenal</t>
@@ -3544,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3557,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -3570,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -3583,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3596,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -3609,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Lolotla</t>
@@ -3622,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -3635,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -3648,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -3661,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3674,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -3687,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -3700,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>San Agustín Tlaxiaca</t>
@@ -3713,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -3726,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -3739,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Tepeji Del Río De Ocampo</t>
@@ -3752,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -3765,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -3778,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3848,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -3861,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -3874,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Chiquilistlán</t>
@@ -3887,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -3900,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -3913,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -3926,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3939,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -4017,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -4030,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -4043,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -4056,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -4069,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -4082,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4095,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -4108,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -4121,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -4134,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -4147,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4160,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -4173,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4204,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -4217,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -4230,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -4243,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Cherán</t>
@@ -4256,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -4269,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -4282,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -4295,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4308,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Huaniqueo</t>
@@ -4321,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -4334,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -4347,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -4360,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4373,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -4386,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -4399,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4412,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -4425,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -4438,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -4451,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -4464,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -4477,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -4490,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -4503,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -4516,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -4529,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -4542,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -4555,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -4568,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -4581,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -4594,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -4607,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4638,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4651,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4664,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Miacatlán</t>
@@ -4677,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -4690,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -4703,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -4716,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -4729,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -4742,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4773,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -4786,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -4799,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -4812,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -4825,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -4838,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -4851,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4882,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Aramberri</t>
@@ -4895,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Cadereyta Jiménez</t>
@@ -4908,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Doctor Arroyo</t>
@@ -4921,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4934,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Mier Y Noriega</t>
@@ -4947,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -4960,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Sabinas Hidalgo</t>
@@ -4973,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -4986,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -4999,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5030,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Ciudad Ixtepec</t>
@@ -5043,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Coicoyán De Las Flores</t>
@@ -5056,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -5069,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -5082,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -5095,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -5108,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -5121,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -5134,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -5147,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -5160,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -5173,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -5186,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -5199,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>San Ildefonso Amatlán</t>
@@ -5212,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>San Jerónimo Coatlán</t>
@@ -5225,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>San José Del Progreso</t>
@@ -5238,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>San Juan Cacahuatepec</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -5290,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>San Juan Quiotepec</t>
@@ -5303,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>San Miguel Mixtepec</t>
@@ -5316,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -5329,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>San Miguel Peras</t>
@@ -5342,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>San Miguel Tilquiápam</t>
@@ -5355,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>San Pablo Yaganiza</t>
@@ -5368,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -5381,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>San Pedro Yaneri</t>
@@ -5394,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>San Simón Almolongas</t>
@@ -5407,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>San Vicente Coatlán</t>
@@ -5420,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -5433,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -5446,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Santa María Lachixío</t>
@@ -5459,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Santa María Sola</t>
@@ -5472,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Santa María Tlahuitoltepec</t>
@@ -5485,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -5498,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -5511,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -5524,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -5537,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -5550,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Santiago Tlazoyaltepec</t>
@@ -5563,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Santiago Xiacuí</t>
@@ -5576,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -5589,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Santo Domingo Armenta</t>
@@ -5602,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -5615,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -5628,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -5641,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Santos Reyes Pápalo</t>
@@ -5654,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Tamazulápam Del Espíritu Santo</t>
@@ -5680,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Tataltepec De Valdés</t>
@@ -5693,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Villa De Tututepec</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5763,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Altepexi</t>
@@ -5776,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -5789,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -5802,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -5815,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -5828,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -5841,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -5854,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -5867,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -5880,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -5893,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -5906,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Rafael Lara Grajales</t>
@@ -5919,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -5932,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -5945,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -5958,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Santiago Miahuatlán</t>
@@ -5971,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -5984,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -5997,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -6010,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Teopantlán</t>
@@ -6023,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -6036,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -6049,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -6062,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -6075,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -6088,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -6101,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -6114,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -6127,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -6140,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -6153,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -6166,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Zinacatepec</t>
@@ -6179,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Zoquitlán</t>
@@ -6192,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6223,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -6236,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -6249,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -6262,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -6275,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -6288,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -6301,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Peñamiller</t>
@@ -6314,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -6327,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -6340,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>San Joaquín</t>
@@ -6353,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6366,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6397,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6428,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Alaquines</t>
@@ -6441,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -6454,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -6467,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -6480,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Cerro De San Pedro</t>
@@ -6493,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -6506,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6519,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -6532,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -6545,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Huehuetlán</t>
@@ -6558,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -6571,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -6584,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -6597,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -6610,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -6623,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -6636,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -6649,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -6662,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -6675,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -6688,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -6701,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Tancanhuitz</t>
@@ -6714,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Tanlajás</t>
@@ -6727,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -6740,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Villa De Guadalupe</t>
@@ -6753,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -6766,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -6779,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -6792,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -6805,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6836,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -6849,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -6862,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -6875,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -6888,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6919,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -6932,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -6945,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Pitiquito</t>
@@ -6958,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6989,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -7002,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -7015,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -7028,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -7041,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Jalapa</t>
@@ -7054,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -7067,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -7080,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -7093,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7124,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -7137,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Antiguo Morelos</t>
@@ -7150,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Burgos</t>
@@ -7163,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Bustamante</t>
@@ -7176,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Casas</t>
@@ -7189,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -7202,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>González</t>
@@ -7215,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -7228,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -7241,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -7254,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -7267,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Nuevo Morelos</t>
@@ -7280,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -7293,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -7306,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -7319,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -7332,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -7345,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -7358,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -7371,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -7384,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7415,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -7428,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7441,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7472,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Acula</t>
@@ -7485,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Agua Dulce</t>
@@ -7498,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Alpatláhuac</t>
@@ -7511,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -7524,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -7537,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -7550,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Atlahuilco</t>
@@ -7563,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -7576,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -7589,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Boca Del Río</t>
@@ -7602,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -7615,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -7628,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -7641,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Chalma</t>
@@ -7654,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -7667,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Chinameca</t>
@@ -7680,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Chocamán</t>
@@ -7693,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -7706,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Coatzintla</t>
@@ -7719,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -7732,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -7745,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Cosautlán De Carvajal</t>
@@ -7758,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -7771,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -7784,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -7797,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -7810,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -7823,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -7836,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -7849,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -7862,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -7875,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -7888,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -7901,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -7914,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -7927,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -7940,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -7953,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -7966,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -7979,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -7992,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -8005,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -8018,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -8031,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -8044,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -8057,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Mixtla De Altamirano</t>
@@ -8070,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Oluta</t>
@@ -8083,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -8096,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -8109,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -8122,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -8135,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -8148,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Pueblo Viejo</t>
@@ -8161,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -8174,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -8187,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -8200,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -8213,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -8226,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -8239,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -8252,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -8265,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -8278,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -8291,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -8304,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -8317,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -8330,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -8343,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -8356,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -8369,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -8382,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -8395,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -8408,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -8421,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -8434,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -8447,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -8460,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -8473,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -8486,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -8499,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8530,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Yaxkukul</t>
@@ -8543,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8574,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -8587,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -8600,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -8613,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -8626,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -8639,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -8652,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -8665,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -8678,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -8691,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -8704,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -8717,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -8730,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -8743,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -8756,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Total</t>
